--- a/flag/2025-02-19_CPL_mBio/10_seqIDs_to_classifications/379_MotABs/output_table_MotB_fixing_df_v1.xlsx
+++ b/flag/2025-02-19_CPL_mBio/10_seqIDs_to_classifications/379_MotABs/output_table_MotB_fixing_df_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickm/GitHub/bioinfRhints/flag/2025-02-19_CPL_mBio/10_seqIDs_to_classifications/379_MotABs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{21FBC76C-FC04-0E4F-8DD4-6CEBF0156A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{442298BD-19A7-AC43-BDC1-D70A6D08915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3860" yWindow="980" windowWidth="31320" windowHeight="17300" xr2:uid="{A4A320B1-68C1-894D-A7B3-BC6B22049083}"/>
   </bookViews>
@@ -7043,8 +7043,8 @@
   <dimension ref="A1:P385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
+      <pane ySplit="6" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7:L385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7174,6 +7174,10 @@
       <c r="K7" t="s">
         <v>15</v>
       </c>
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L70" si="0">IF(I7="NA",F7,I7)</f>
+        <v>AAC73832</v>
+      </c>
       <c r="M7" s="4" t="str">
         <f>IF(F7=I7,"y","")</f>
         <v>y</v>
@@ -7217,12 +7221,16 @@
       <c r="K8" t="s">
         <v>21</v>
       </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>AAC74959</v>
+      </c>
       <c r="M8" s="4" t="str">
-        <f t="shared" ref="M8:M71" si="0">IF(F8=I8,"y","")</f>
+        <f t="shared" ref="M8:M71" si="1">IF(F8=I8,"y","")</f>
         <v>y</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ref="N8:N71" si="1">IF(D8=F8,"yes, fix please","")</f>
+        <f t="shared" ref="N8:N71" si="2">IF(D8=F8,"yes, fix please","")</f>
         <v/>
       </c>
     </row>
@@ -7260,12 +7268,16 @@
       <c r="K9" t="s">
         <v>27</v>
       </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>AAC76041</v>
+      </c>
       <c r="M9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7303,12 +7315,16 @@
       <c r="K10" t="s">
         <v>33</v>
       </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>AAG03588</v>
+      </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7346,12 +7362,16 @@
       <c r="K11" t="s">
         <v>33</v>
       </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>AAG04083</v>
+      </c>
       <c r="M11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7389,12 +7409,16 @@
       <c r="K12" t="s">
         <v>44</v>
       </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>AAG04359</v>
+      </c>
       <c r="M12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7432,12 +7456,16 @@
       <c r="K13" t="s">
         <v>50</v>
       </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>AAG04850</v>
+      </c>
       <c r="M13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7475,12 +7503,16 @@
       <c r="K14" t="s">
         <v>56</v>
       </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>AAG06370</v>
+      </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7518,12 +7550,16 @@
       <c r="K15" t="s">
         <v>62</v>
       </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>AAG08338</v>
+      </c>
       <c r="M15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7561,12 +7597,16 @@
       <c r="K16" t="s">
         <v>68</v>
       </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>AAR33362</v>
+      </c>
       <c r="M16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7604,12 +7644,16 @@
       <c r="K17" t="s">
         <v>74</v>
       </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>AAR36420</v>
+      </c>
       <c r="M17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7647,12 +7691,16 @@
       <c r="K18" t="s">
         <v>80</v>
       </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>ABA03970</v>
+      </c>
       <c r="M18" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7690,12 +7738,16 @@
       <c r="K19" t="s">
         <v>86</v>
       </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>ABA04499</v>
+      </c>
       <c r="M19" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7733,12 +7785,16 @@
       <c r="K20" t="s">
         <v>80</v>
       </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>ABA04529</v>
+      </c>
       <c r="M20" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7776,12 +7832,16 @@
       <c r="K21" t="s">
         <v>80</v>
       </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>ABA05298</v>
+      </c>
       <c r="M21" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7819,12 +7879,16 @@
       <c r="K22" t="s">
         <v>80</v>
       </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>ABA05560</v>
+      </c>
       <c r="M22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7862,12 +7926,16 @@
       <c r="K23" t="s">
         <v>107</v>
       </c>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v>ABA05972</v>
+      </c>
       <c r="M23" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7905,12 +7973,16 @@
       <c r="K24" t="s">
         <v>113</v>
       </c>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v>ABC76752</v>
+      </c>
       <c r="M24" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7948,12 +8020,16 @@
       <c r="K25" t="s">
         <v>119</v>
       </c>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF91474</v>
+      </c>
       <c r="M25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7991,12 +8067,16 @@
       <c r="K26" t="s">
         <v>56</v>
       </c>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF88211</v>
+      </c>
       <c r="M26" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8034,12 +8114,16 @@
       <c r="K27" t="s">
         <v>119</v>
       </c>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF89902</v>
+      </c>
       <c r="M27" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8077,12 +8161,16 @@
       <c r="K28" t="s">
         <v>135</v>
       </c>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF88330</v>
+      </c>
       <c r="M28" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8120,12 +8208,16 @@
       <c r="K29" t="s">
         <v>135</v>
       </c>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF88650</v>
+      </c>
       <c r="M29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8163,12 +8255,16 @@
       <c r="K30" t="s">
         <v>146</v>
       </c>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF92022</v>
+      </c>
       <c r="M30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8206,12 +8302,16 @@
       <c r="K31" t="s">
         <v>135</v>
       </c>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF91353</v>
+      </c>
       <c r="M31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8249,12 +8349,16 @@
       <c r="K32" t="s">
         <v>135</v>
       </c>
+      <c r="L32" t="str">
+        <f t="shared" si="0"/>
+        <v>ABF87962</v>
+      </c>
       <c r="M32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8292,12 +8396,16 @@
       <c r="K33" t="s">
         <v>80</v>
       </c>
+      <c r="L33" t="str">
+        <f t="shared" si="0"/>
+        <v>ABG59283</v>
+      </c>
       <c r="M33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8335,12 +8443,16 @@
       <c r="K34" t="s">
         <v>80</v>
       </c>
+      <c r="L34" t="str">
+        <f t="shared" si="0"/>
+        <v>ABG60813</v>
+      </c>
       <c r="M34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8378,12 +8490,16 @@
       <c r="K35" t="s">
         <v>80</v>
       </c>
+      <c r="L35" t="str">
+        <f t="shared" si="0"/>
+        <v>ABL64660</v>
+      </c>
       <c r="M35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8421,12 +8537,16 @@
       <c r="K36" t="s">
         <v>107</v>
       </c>
+      <c r="L36" t="str">
+        <f t="shared" si="0"/>
+        <v>ABL64908</v>
+      </c>
       <c r="M36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8464,12 +8584,16 @@
       <c r="K37" t="s">
         <v>182</v>
       </c>
+      <c r="L37" t="str">
+        <f t="shared" si="0"/>
+        <v>ABY95375</v>
+      </c>
       <c r="M37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8507,12 +8631,16 @@
       <c r="K38" t="s">
         <v>188</v>
       </c>
+      <c r="L38" t="str">
+        <f t="shared" si="0"/>
+        <v>ACB73532</v>
+      </c>
       <c r="M38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8550,12 +8678,16 @@
       <c r="K39" t="s">
         <v>182</v>
       </c>
+      <c r="L39" t="str">
+        <f t="shared" si="0"/>
+        <v>ACB73690</v>
+      </c>
       <c r="M39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8593,12 +8725,16 @@
       <c r="K40" t="s">
         <v>199</v>
       </c>
+      <c r="L40" t="str">
+        <f t="shared" si="0"/>
+        <v>ACB75628</v>
+      </c>
       <c r="M40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8636,12 +8772,16 @@
       <c r="K41" t="s">
         <v>199</v>
       </c>
+      <c r="L41" t="str">
+        <f t="shared" si="0"/>
+        <v>ACB76603</v>
+      </c>
       <c r="M41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8679,12 +8819,16 @@
       <c r="K42" t="s">
         <v>199</v>
       </c>
+      <c r="L42" t="str">
+        <f t="shared" si="0"/>
+        <v>ACB77179</v>
+      </c>
       <c r="M42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8722,12 +8866,16 @@
       <c r="K43" t="s">
         <v>215</v>
       </c>
+      <c r="L43" t="str">
+        <f t="shared" si="0"/>
+        <v>ACD89826</v>
+      </c>
       <c r="M43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8765,12 +8913,16 @@
       <c r="K44" t="s">
         <v>56</v>
       </c>
+      <c r="L44" t="str">
+        <f t="shared" si="0"/>
+        <v>ACD90994</v>
+      </c>
       <c r="M44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8808,12 +8960,16 @@
       <c r="K45" t="s">
         <v>215</v>
       </c>
+      <c r="L45" t="str">
+        <f t="shared" si="0"/>
+        <v>ACF11058</v>
+      </c>
       <c r="M45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8851,12 +9007,16 @@
       <c r="K46" t="s">
         <v>199</v>
       </c>
+      <c r="L46" t="str">
+        <f t="shared" si="0"/>
+        <v>ACF11912</v>
+      </c>
       <c r="M46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8894,12 +9054,16 @@
       <c r="K47" t="s">
         <v>199</v>
       </c>
+      <c r="L47" t="str">
+        <f t="shared" si="0"/>
+        <v>ACF14375</v>
+      </c>
       <c r="M47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8937,12 +9101,16 @@
       <c r="K48" t="s">
         <v>56</v>
       </c>
+      <c r="L48" t="str">
+        <f t="shared" si="0"/>
+        <v>ACF14781</v>
+      </c>
       <c r="M48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -8980,12 +9148,16 @@
       <c r="K49" t="s">
         <v>56</v>
       </c>
+      <c r="L49" t="str">
+        <f t="shared" si="0"/>
+        <v>ACF43025</v>
+      </c>
       <c r="M49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9023,12 +9195,16 @@
       <c r="K50" t="s">
         <v>199</v>
       </c>
+      <c r="L50" t="str">
+        <f t="shared" si="0"/>
+        <v>ACF44366</v>
+      </c>
       <c r="M50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9066,12 +9242,16 @@
       <c r="K51" t="s">
         <v>62</v>
       </c>
+      <c r="L51" t="str">
+        <f t="shared" si="0"/>
+        <v>ACI20276</v>
+      </c>
       <c r="M51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9109,12 +9289,16 @@
       <c r="K52" t="s">
         <v>62</v>
       </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v>ACI21439</v>
+      </c>
       <c r="M52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9152,12 +9336,16 @@
       <c r="K53" t="s">
         <v>44</v>
       </c>
+      <c r="L53" t="str">
+        <f t="shared" si="0"/>
+        <v>ACI21831</v>
+      </c>
       <c r="M53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9195,12 +9383,16 @@
       <c r="K54" t="s">
         <v>182</v>
       </c>
+      <c r="L54" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL22207</v>
+      </c>
       <c r="M54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9238,12 +9430,16 @@
       <c r="K55" t="s">
         <v>199</v>
       </c>
+      <c r="L55" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL63648</v>
+      </c>
       <c r="M55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9281,12 +9477,16 @@
       <c r="K56" t="s">
         <v>215</v>
       </c>
+      <c r="L56" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL64051</v>
+      </c>
       <c r="M56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9324,12 +9524,16 @@
       <c r="K57" t="s">
         <v>199</v>
       </c>
+      <c r="L57" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL64949</v>
+      </c>
       <c r="M57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9367,12 +9571,16 @@
       <c r="K58" t="s">
         <v>182</v>
       </c>
+      <c r="L58" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL65906</v>
+      </c>
       <c r="M58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9410,12 +9618,16 @@
       <c r="K59" t="s">
         <v>199</v>
       </c>
+      <c r="L59" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL67493</v>
+      </c>
       <c r="M59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9453,12 +9665,16 @@
       <c r="K60" t="s">
         <v>199</v>
       </c>
+      <c r="L60" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL67781</v>
+      </c>
       <c r="M60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9496,12 +9712,16 @@
       <c r="K61" t="s">
         <v>305</v>
       </c>
+      <c r="L61" t="str">
+        <f t="shared" si="0"/>
+        <v>AHI88541</v>
+      </c>
       <c r="M61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P61" t="s">
@@ -9542,12 +9762,16 @@
       <c r="K62" t="s">
         <v>311</v>
       </c>
+      <c r="L62" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL95885</v>
+      </c>
       <c r="M62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9585,12 +9809,16 @@
       <c r="K63" t="s">
         <v>317</v>
       </c>
+      <c r="L63" t="str">
+        <f t="shared" si="0"/>
+        <v>ACL96804</v>
+      </c>
       <c r="M63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9628,12 +9856,16 @@
       <c r="K64" t="s">
         <v>119</v>
       </c>
+      <c r="L64" t="str">
+        <f t="shared" si="0"/>
+        <v>ACO32642</v>
+      </c>
       <c r="M64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9671,12 +9903,16 @@
       <c r="K65" t="s">
         <v>119</v>
       </c>
+      <c r="L65" t="str">
+        <f t="shared" si="0"/>
+        <v>ACO31962</v>
+      </c>
       <c r="M65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9714,12 +9950,16 @@
       <c r="K66" t="s">
         <v>62</v>
       </c>
+      <c r="L66" t="str">
+        <f t="shared" si="0"/>
+        <v>ACO31774</v>
+      </c>
       <c r="M66" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9757,12 +9997,16 @@
       <c r="K67" t="s">
         <v>62</v>
       </c>
+      <c r="L67" t="str">
+        <f t="shared" si="0"/>
+        <v>ACO34085</v>
+      </c>
       <c r="M67" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9800,12 +10044,16 @@
       <c r="K68" t="s">
         <v>199</v>
       </c>
+      <c r="L68" t="str">
+        <f t="shared" si="0"/>
+        <v>ACV38438</v>
+      </c>
       <c r="M68" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9843,12 +10091,16 @@
       <c r="K69" t="s">
         <v>199</v>
       </c>
+      <c r="L69" t="str">
+        <f t="shared" si="0"/>
+        <v>ACX73655</v>
+      </c>
       <c r="M69" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9886,12 +10138,16 @@
       <c r="K70" t="s">
         <v>199</v>
       </c>
+      <c r="L70" t="str">
+        <f t="shared" si="0"/>
+        <v>ACX73813</v>
+      </c>
       <c r="M70" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9929,12 +10185,16 @@
       <c r="K71" t="s">
         <v>199</v>
       </c>
+      <c r="L71" t="str">
+        <f t="shared" ref="L71:L99" si="3">IF(I71="NA",F71,I71)</f>
+        <v>ACX74511</v>
+      </c>
       <c r="M71" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>y</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -9972,12 +10232,16 @@
       <c r="K72" t="s">
         <v>199</v>
       </c>
+      <c r="L72" t="str">
+        <f t="shared" si="3"/>
+        <v>ACX75485</v>
+      </c>
       <c r="M72" s="4" t="str">
-        <f t="shared" ref="M72:M135" si="2">IF(F72=I72,"y","")</f>
+        <f t="shared" ref="M72:M135" si="4">IF(F72=I72,"y","")</f>
         <v>y</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" ref="N72:N135" si="3">IF(D72=F72,"yes, fix please","")</f>
+        <f t="shared" ref="N72:N135" si="5">IF(D72=F72,"yes, fix please","")</f>
         <v/>
       </c>
     </row>
@@ -10015,12 +10279,16 @@
       <c r="K73" t="s">
         <v>199</v>
       </c>
+      <c r="L73" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB15651</v>
+      </c>
       <c r="M73" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10058,12 +10326,16 @@
       <c r="K74" t="s">
         <v>305</v>
       </c>
+      <c r="L74" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB16661</v>
+      </c>
       <c r="M74" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P74" t="s">
@@ -10104,12 +10376,16 @@
       <c r="K75" t="s">
         <v>199</v>
       </c>
+      <c r="L75" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB17135</v>
+      </c>
       <c r="M75" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10147,12 +10423,16 @@
       <c r="K76" t="s">
         <v>199</v>
       </c>
+      <c r="L76" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB17384</v>
+      </c>
       <c r="M76" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10190,12 +10470,16 @@
       <c r="K77" t="s">
         <v>199</v>
       </c>
+      <c r="L77" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB17457</v>
+      </c>
       <c r="M77" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10233,12 +10517,16 @@
       <c r="K78" t="s">
         <v>199</v>
       </c>
+      <c r="L78" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB17548</v>
+      </c>
       <c r="M78" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10276,12 +10564,16 @@
       <c r="K79" t="s">
         <v>199</v>
       </c>
+      <c r="L79" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB18836</v>
+      </c>
       <c r="M79" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10319,12 +10611,16 @@
       <c r="K80" t="s">
         <v>182</v>
       </c>
+      <c r="L80" t="str">
+        <f t="shared" si="3"/>
+        <v>ADB18998</v>
+      </c>
       <c r="M80" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10362,12 +10658,16 @@
       <c r="K81" t="s">
         <v>199</v>
       </c>
+      <c r="L81" t="str">
+        <f t="shared" si="3"/>
+        <v>ADC89508</v>
+      </c>
       <c r="M81" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10405,12 +10705,16 @@
       <c r="K82" t="s">
         <v>182</v>
       </c>
+      <c r="L82" t="str">
+        <f t="shared" si="3"/>
+        <v>ADC89567</v>
+      </c>
       <c r="M82" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10448,12 +10752,16 @@
       <c r="K83" t="s">
         <v>182</v>
       </c>
+      <c r="L83" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD67091</v>
+      </c>
       <c r="M83" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10491,12 +10799,16 @@
       <c r="K84" t="s">
         <v>199</v>
       </c>
+      <c r="L84" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD67608</v>
+      </c>
       <c r="M84" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10534,12 +10846,16 @@
       <c r="K85" t="s">
         <v>199</v>
       </c>
+      <c r="L85" t="str">
+        <f t="shared" si="3"/>
+        <v>ADD67875</v>
+      </c>
       <c r="M85" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10577,12 +10893,16 @@
       <c r="K86" t="s">
         <v>182</v>
       </c>
+      <c r="L86" t="str">
+        <f t="shared" si="3"/>
+        <v>ADG94139</v>
+      </c>
       <c r="M86" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10620,12 +10940,16 @@
       <c r="K87" t="s">
         <v>199</v>
       </c>
+      <c r="L87" t="str">
+        <f t="shared" si="3"/>
+        <v>ADI15491</v>
+      </c>
       <c r="M87" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10663,12 +10987,16 @@
       <c r="K88" t="s">
         <v>215</v>
       </c>
+      <c r="L88" t="str">
+        <f t="shared" si="3"/>
+        <v>ADL00175</v>
+      </c>
       <c r="M88" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10706,12 +11034,16 @@
       <c r="K89" t="s">
         <v>199</v>
       </c>
+      <c r="L89" t="str">
+        <f t="shared" si="3"/>
+        <v>ADL01025</v>
+      </c>
       <c r="M89" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10749,12 +11081,16 @@
       <c r="K90" t="s">
         <v>305</v>
       </c>
+      <c r="L90" t="str">
+        <f t="shared" si="3"/>
+        <v>ADL02463</v>
+      </c>
       <c r="M90" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P90" t="s">
@@ -10795,12 +11131,16 @@
       <c r="K91" t="s">
         <v>182</v>
       </c>
+      <c r="L91" t="str">
+        <f t="shared" si="3"/>
+        <v>ADL42742</v>
+      </c>
       <c r="M91" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10838,12 +11178,16 @@
       <c r="K92" t="s">
         <v>182</v>
       </c>
+      <c r="L92" t="str">
+        <f t="shared" si="3"/>
+        <v>ADN09320</v>
+      </c>
       <c r="M92" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10881,12 +11225,16 @@
       <c r="K93" t="s">
         <v>199</v>
       </c>
+      <c r="L93" t="str">
+        <f t="shared" si="3"/>
+        <v>ADO44511</v>
+      </c>
       <c r="M93" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10924,12 +11272,16 @@
       <c r="K94" t="s">
         <v>471</v>
       </c>
+      <c r="L94" t="str">
+        <f t="shared" si="3"/>
+        <v>ADO68799</v>
+      </c>
       <c r="M94" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10967,12 +11319,16 @@
       <c r="K95" t="s">
         <v>471</v>
       </c>
+      <c r="L95" t="str">
+        <f t="shared" si="3"/>
+        <v>ADO70053</v>
+      </c>
       <c r="M95" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11010,12 +11366,16 @@
       <c r="K96" t="s">
         <v>471</v>
       </c>
+      <c r="L96" t="str">
+        <f t="shared" si="3"/>
+        <v>ADO73221</v>
+      </c>
       <c r="M96" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11053,12 +11413,16 @@
       <c r="K97" t="s">
         <v>487</v>
       </c>
+      <c r="L97" t="str">
+        <f t="shared" si="3"/>
+        <v>ADO74177</v>
+      </c>
       <c r="M97" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11096,12 +11460,16 @@
       <c r="K98" t="s">
         <v>493</v>
       </c>
+      <c r="L98" t="str">
+        <f t="shared" si="3"/>
+        <v>ADO75003</v>
+      </c>
       <c r="M98" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11139,12 +11507,16 @@
       <c r="K99" t="s">
         <v>493</v>
       </c>
+      <c r="L99" t="str">
+        <f t="shared" si="3"/>
+        <v>ADO76073</v>
+      </c>
       <c r="M99" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11182,12 +11554,16 @@
       <c r="K100" t="s">
         <v>305</v>
       </c>
+      <c r="L100" t="str">
+        <f>IF(I100="NA",F100,I100)</f>
+        <v>ADV62319</v>
+      </c>
       <c r="M100" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P100" t="s">
@@ -11228,12 +11604,16 @@
       <c r="K101" t="s">
         <v>199</v>
       </c>
+      <c r="L101" t="str">
+        <f t="shared" ref="L101:L164" si="6">IF(I101="NA",F101,I101)</f>
+        <v>ADV67906</v>
+      </c>
       <c r="M101" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11271,12 +11651,16 @@
       <c r="K102" t="s">
         <v>305</v>
       </c>
+      <c r="L102" t="str">
+        <f t="shared" si="6"/>
+        <v>ADY58079</v>
+      </c>
       <c r="M102" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P102" t="s">
@@ -11317,12 +11701,16 @@
       <c r="K103" t="s">
         <v>80</v>
       </c>
+      <c r="L103" t="str">
+        <f t="shared" si="6"/>
+        <v>ADY58082</v>
+      </c>
       <c r="M103" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11360,12 +11748,16 @@
       <c r="K104" t="s">
         <v>182</v>
       </c>
+      <c r="L104" t="str">
+        <f t="shared" si="6"/>
+        <v>ADY60069</v>
+      </c>
       <c r="M104" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11403,12 +11795,16 @@
       <c r="K105" t="s">
         <v>199</v>
       </c>
+      <c r="L105" t="str">
+        <f t="shared" si="6"/>
+        <v>ADY61979</v>
+      </c>
       <c r="M105" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11446,12 +11842,16 @@
       <c r="K106" t="s">
         <v>532</v>
       </c>
+      <c r="L106" t="str">
+        <f t="shared" si="6"/>
+        <v>ADY81530</v>
+      </c>
       <c r="M106" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11489,12 +11889,16 @@
       <c r="K107" t="s">
         <v>538</v>
       </c>
+      <c r="L107" t="str">
+        <f t="shared" si="6"/>
+        <v>ADY81764</v>
+      </c>
       <c r="M107" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11532,12 +11936,16 @@
       <c r="K108" t="s">
         <v>538</v>
       </c>
+      <c r="L108" t="str">
+        <f t="shared" si="6"/>
+        <v>ADY81774</v>
+      </c>
       <c r="M108" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11575,12 +11983,16 @@
       <c r="K109" t="s">
         <v>199</v>
       </c>
+      <c r="L109" t="str">
+        <f t="shared" si="6"/>
+        <v>AEB12215</v>
+      </c>
       <c r="M109" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11618,12 +12030,16 @@
       <c r="K110" t="s">
         <v>199</v>
       </c>
+      <c r="L110" t="str">
+        <f t="shared" si="6"/>
+        <v>AEI15148</v>
+      </c>
       <c r="M110" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11661,12 +12077,16 @@
       <c r="K111" t="s">
         <v>305</v>
       </c>
+      <c r="L111" t="str">
+        <f t="shared" si="6"/>
+        <v>AEI88773</v>
+      </c>
       <c r="M111" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P111" t="s">
@@ -11707,12 +12127,16 @@
       <c r="K112" t="s">
         <v>563</v>
       </c>
+      <c r="L112" t="str">
+        <f t="shared" si="6"/>
+        <v>AEI88826</v>
+      </c>
       <c r="M112" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11750,12 +12174,16 @@
       <c r="K113" t="s">
         <v>569</v>
       </c>
+      <c r="L113" t="str">
+        <f t="shared" si="6"/>
+        <v>AEI89250</v>
+      </c>
       <c r="M113" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11793,12 +12221,16 @@
       <c r="K114" t="s">
         <v>575</v>
       </c>
+      <c r="L114" t="str">
+        <f t="shared" si="6"/>
+        <v>AEO47595</v>
+      </c>
       <c r="M114" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11836,12 +12268,16 @@
       <c r="K115" t="s">
         <v>86</v>
       </c>
+      <c r="L115" t="str">
+        <f t="shared" si="6"/>
+        <v>AEO48325</v>
+      </c>
       <c r="M115" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11879,12 +12315,16 @@
       <c r="K116" t="s">
         <v>86</v>
       </c>
+      <c r="L116" t="str">
+        <f t="shared" si="6"/>
+        <v>AEO48361</v>
+      </c>
       <c r="M116" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11922,12 +12362,16 @@
       <c r="K117" t="s">
         <v>575</v>
       </c>
+      <c r="L117" t="str">
+        <f t="shared" si="6"/>
+        <v>AEO48684</v>
+      </c>
       <c r="M117" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -11965,12 +12409,16 @@
       <c r="K118" t="s">
         <v>80</v>
       </c>
+      <c r="L118" t="str">
+        <f t="shared" si="6"/>
+        <v>AEW00829</v>
+      </c>
       <c r="M118" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12008,12 +12456,16 @@
       <c r="K119" t="s">
         <v>80</v>
       </c>
+      <c r="L119" t="str">
+        <f t="shared" si="6"/>
+        <v>AEW03300</v>
+      </c>
       <c r="M119" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12051,12 +12503,16 @@
       <c r="K120" t="s">
         <v>188</v>
       </c>
+      <c r="L120" t="str">
+        <f t="shared" si="6"/>
+        <v>AFE06168</v>
+      </c>
       <c r="M120" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12094,12 +12550,16 @@
       <c r="K121" t="s">
         <v>611</v>
       </c>
+      <c r="L121" t="str">
+        <f t="shared" si="6"/>
+        <v>AFE07538</v>
+      </c>
       <c r="M121" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12137,12 +12597,16 @@
       <c r="K122" t="s">
         <v>146</v>
       </c>
+      <c r="L122" t="str">
+        <f t="shared" si="6"/>
+        <v>AFE10517</v>
+      </c>
       <c r="M122" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12180,12 +12644,16 @@
       <c r="K123" t="s">
         <v>622</v>
       </c>
+      <c r="L123" t="str">
+        <f t="shared" si="6"/>
+        <v>AFE08687</v>
+      </c>
       <c r="M123" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12223,12 +12691,16 @@
       <c r="K124" t="s">
         <v>611</v>
       </c>
+      <c r="L124" t="str">
+        <f t="shared" si="6"/>
+        <v>AFE10518</v>
+      </c>
       <c r="M124" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12266,12 +12738,16 @@
       <c r="K125" t="s">
         <v>611</v>
       </c>
+      <c r="L125" t="str">
+        <f t="shared" si="6"/>
+        <v>AFE08688</v>
+      </c>
       <c r="M125" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12309,12 +12785,16 @@
       <c r="K126" t="s">
         <v>611</v>
       </c>
+      <c r="L126" t="str">
+        <f t="shared" si="6"/>
+        <v>AFE08690</v>
+      </c>
       <c r="M126" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12352,12 +12832,16 @@
       <c r="K127" t="s">
         <v>305</v>
       </c>
+      <c r="L127" t="str">
+        <f t="shared" si="6"/>
+        <v>AGR80825</v>
+      </c>
       <c r="M127" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P127" t="s">
@@ -12398,12 +12882,16 @@
       <c r="K128" t="s">
         <v>569</v>
       </c>
+      <c r="L128" t="str">
+        <f t="shared" si="6"/>
+        <v>AHE95899</v>
+      </c>
       <c r="M128" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12441,12 +12929,16 @@
       <c r="K129" t="s">
         <v>652</v>
       </c>
+      <c r="L129" t="str">
+        <f t="shared" si="6"/>
+        <v>AHE96345</v>
+      </c>
       <c r="M129" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12484,12 +12976,16 @@
       <c r="K130" t="s">
         <v>199</v>
       </c>
+      <c r="L130" t="str">
+        <f t="shared" si="6"/>
+        <v>AIE86462</v>
+      </c>
       <c r="M130" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12527,12 +13023,16 @@
       <c r="K131" t="s">
         <v>305</v>
       </c>
+      <c r="L131" t="str">
+        <f t="shared" si="6"/>
+        <v>AIK95820</v>
+      </c>
       <c r="M131" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P131" t="s">
@@ -12573,12 +13073,16 @@
       <c r="K132" t="s">
         <v>44</v>
       </c>
+      <c r="L132" t="str">
+        <f t="shared" si="6"/>
+        <v>AIQ91306</v>
+      </c>
       <c r="M132" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12616,12 +13120,16 @@
       <c r="K133" t="s">
         <v>672</v>
       </c>
+      <c r="L133" t="str">
+        <f t="shared" si="6"/>
+        <v>AIQ92723</v>
+      </c>
       <c r="M133" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N133" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12659,12 +13167,16 @@
       <c r="K134" t="s">
         <v>672</v>
       </c>
+      <c r="L134" t="str">
+        <f t="shared" si="6"/>
+        <v>AIQ92766</v>
+      </c>
       <c r="M134" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N134" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12702,12 +13214,16 @@
       <c r="K135" t="s">
         <v>683</v>
       </c>
+      <c r="L135" t="str">
+        <f t="shared" si="6"/>
+        <v>AJH78804</v>
+      </c>
       <c r="M135" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="N135" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -12745,8 +13261,12 @@
       <c r="K136" t="s">
         <v>652</v>
       </c>
+      <c r="L136" t="str">
+        <f t="shared" si="6"/>
+        <v>AKD02511</v>
+      </c>
       <c r="M136" s="4" t="str">
-        <f t="shared" ref="M136:M199" si="4">IF(F136=I136,"y","")</f>
+        <f t="shared" ref="M136:M199" si="7">IF(F136=I136,"y","")</f>
         <v>y</v>
       </c>
       <c r="N136" t="str">
@@ -12788,8 +13308,12 @@
       <c r="K137" t="s">
         <v>694</v>
       </c>
+      <c r="L137" t="str">
+        <f t="shared" si="6"/>
+        <v>AKJ63347</v>
+      </c>
       <c r="M137" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N137" t="str">
@@ -12831,8 +13355,12 @@
       <c r="K138" t="s">
         <v>215</v>
       </c>
+      <c r="L138" t="str">
+        <f t="shared" si="6"/>
+        <v>AKJ63367</v>
+      </c>
       <c r="M138" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N138" t="str">
@@ -12874,8 +13402,12 @@
       <c r="K139" t="s">
         <v>694</v>
       </c>
+      <c r="L139" t="str">
+        <f t="shared" si="6"/>
+        <v>AKJ64100</v>
+      </c>
       <c r="M139" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N139" t="str">
@@ -12917,8 +13449,12 @@
       <c r="K140" t="s">
         <v>710</v>
       </c>
+      <c r="L140" t="str">
+        <f t="shared" si="6"/>
+        <v>AKJ64363</v>
+      </c>
       <c r="M140" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N140" t="str">
@@ -12960,8 +13496,12 @@
       <c r="K141" t="s">
         <v>717</v>
       </c>
+      <c r="L141" t="str">
+        <f t="shared" si="6"/>
+        <v>AKJ65462</v>
+      </c>
       <c r="M141" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N141" t="str">
@@ -13006,8 +13546,12 @@
       <c r="K142" t="s">
         <v>717</v>
       </c>
+      <c r="L142" t="str">
+        <f t="shared" si="6"/>
+        <v>AKJ65462</v>
+      </c>
       <c r="M142" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N142" t="str">
@@ -13052,8 +13596,12 @@
       <c r="K143" t="s">
         <v>215</v>
       </c>
+      <c r="L143" t="str">
+        <f t="shared" si="6"/>
+        <v>AKJ65566</v>
+      </c>
       <c r="M143" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N143" t="str">
@@ -13095,8 +13643,12 @@
       <c r="K144" t="s">
         <v>731</v>
       </c>
+      <c r="L144" t="str">
+        <f t="shared" si="6"/>
+        <v>AKL98120</v>
+      </c>
       <c r="M144" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N144" t="str">
@@ -13138,8 +13690,12 @@
       <c r="K145" t="s">
         <v>737</v>
       </c>
+      <c r="L145" t="str">
+        <f t="shared" si="6"/>
+        <v>ALA58548</v>
+      </c>
       <c r="M145" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N145" t="str">
@@ -13181,8 +13737,12 @@
       <c r="K146" t="s">
         <v>694</v>
       </c>
+      <c r="L146" t="str">
+        <f t="shared" si="6"/>
+        <v>ALA60091</v>
+      </c>
       <c r="M146" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N146" t="str">
@@ -13224,8 +13784,12 @@
       <c r="K147" t="s">
         <v>188</v>
       </c>
+      <c r="L147" t="str">
+        <f t="shared" si="6"/>
+        <v>ALA61161</v>
+      </c>
       <c r="M147" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N147" t="str">
@@ -13267,8 +13831,12 @@
       <c r="K148" t="s">
         <v>188</v>
       </c>
+      <c r="L148" t="str">
+        <f t="shared" si="6"/>
+        <v>ALJ56691</v>
+      </c>
       <c r="M148" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N148" t="str">
@@ -13310,8 +13878,12 @@
       <c r="K149" t="s">
         <v>759</v>
       </c>
+      <c r="L149" t="str">
+        <f t="shared" si="6"/>
+        <v>ALU34476</v>
+      </c>
       <c r="M149" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N149" t="str">
@@ -13353,8 +13925,12 @@
       <c r="K150" t="s">
         <v>765</v>
       </c>
+      <c r="L150" t="str">
+        <f t="shared" si="6"/>
+        <v>ALU36625</v>
+      </c>
       <c r="M150" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N150" t="str">
@@ -13396,8 +13972,12 @@
       <c r="K151" t="s">
         <v>305</v>
       </c>
+      <c r="L151" t="str">
+        <f t="shared" si="6"/>
+        <v>AMW03967</v>
+      </c>
       <c r="M151" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N151" t="str">
@@ -13442,8 +14022,12 @@
       <c r="K152" t="s">
         <v>188</v>
       </c>
+      <c r="L152" t="str">
+        <f t="shared" si="6"/>
+        <v>AMW05084</v>
+      </c>
       <c r="M152" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N152" t="str">
@@ -13485,8 +14069,12 @@
       <c r="K153" t="s">
         <v>780</v>
       </c>
+      <c r="L153" t="str">
+        <f t="shared" si="6"/>
+        <v>AOO65114</v>
+      </c>
       <c r="M153" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N153" t="str">
@@ -13528,8 +14116,12 @@
       <c r="K154" t="s">
         <v>21</v>
       </c>
+      <c r="L154" t="str">
+        <f t="shared" si="6"/>
+        <v>APC07538</v>
+      </c>
       <c r="M154" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N154" t="str">
@@ -13571,8 +14163,12 @@
       <c r="K155" t="s">
         <v>21</v>
       </c>
+      <c r="L155" t="str">
+        <f t="shared" si="6"/>
+        <v>APC07902</v>
+      </c>
       <c r="M155" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N155" t="str">
@@ -13614,8 +14210,12 @@
       <c r="K156" t="s">
         <v>21</v>
       </c>
+      <c r="L156" t="str">
+        <f t="shared" si="6"/>
+        <v>APC08936</v>
+      </c>
       <c r="M156" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N156" t="str">
@@ -13657,8 +14257,12 @@
       <c r="K157" t="s">
         <v>652</v>
       </c>
+      <c r="L157" t="str">
+        <f t="shared" si="6"/>
+        <v>APW42521</v>
+      </c>
       <c r="M157" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N157" t="str">
@@ -13700,8 +14304,12 @@
       <c r="K158" t="s">
         <v>652</v>
       </c>
+      <c r="L158" t="str">
+        <f t="shared" si="6"/>
+        <v>APW42556</v>
+      </c>
       <c r="M158" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N158" t="str">
@@ -13743,8 +14351,12 @@
       <c r="K159" t="s">
         <v>215</v>
       </c>
+      <c r="L159" t="str">
+        <f t="shared" si="6"/>
+        <v>APW43237</v>
+      </c>
       <c r="M159" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N159" t="str">
@@ -13786,8 +14398,12 @@
       <c r="K160" t="s">
         <v>652</v>
       </c>
+      <c r="L160" t="str">
+        <f t="shared" si="6"/>
+        <v>APW44369</v>
+      </c>
       <c r="M160" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N160" t="str">
@@ -13829,8 +14445,12 @@
       <c r="K161" t="s">
         <v>652</v>
       </c>
+      <c r="L161" t="str">
+        <f t="shared" si="6"/>
+        <v>AQU99648</v>
+      </c>
       <c r="M161" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N161" t="s">
@@ -13871,8 +14491,12 @@
       <c r="K162" t="s">
         <v>199</v>
       </c>
+      <c r="L162" t="str">
+        <f t="shared" si="6"/>
+        <v>ARN57521</v>
+      </c>
       <c r="M162" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N162" t="str">
@@ -13914,8 +14538,12 @@
       <c r="K163" t="s">
         <v>188</v>
       </c>
+      <c r="L163" t="str">
+        <f t="shared" si="6"/>
+        <v>ARU39646</v>
+      </c>
       <c r="M163" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N163" t="str">
@@ -13957,8 +14585,12 @@
       <c r="K164" t="s">
         <v>652</v>
       </c>
+      <c r="L164" t="str">
+        <f t="shared" si="6"/>
+        <v>ATC62713</v>
+      </c>
       <c r="M164" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N164" t="str">
@@ -14000,8 +14632,12 @@
       <c r="K165" t="s">
         <v>188</v>
       </c>
+      <c r="L165" t="str">
+        <f t="shared" ref="L165:L228" si="8">IF(I165="NA",F165,I165)</f>
+        <v>ATC63404</v>
+      </c>
       <c r="M165" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N165" t="str">
@@ -14043,8 +14679,12 @@
       <c r="K166" t="s">
         <v>569</v>
       </c>
+      <c r="L166" t="str">
+        <f t="shared" si="8"/>
+        <v>ATC63649</v>
+      </c>
       <c r="M166" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N166" t="str">
@@ -14086,8 +14726,12 @@
       <c r="K167" t="s">
         <v>652</v>
       </c>
+      <c r="L167" t="str">
+        <f t="shared" si="8"/>
+        <v>ATC64797</v>
+      </c>
       <c r="M167" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N167" t="str">
@@ -14129,8 +14773,12 @@
       <c r="K168" t="s">
         <v>569</v>
       </c>
+      <c r="L168" t="str">
+        <f t="shared" si="8"/>
+        <v>ATO49968</v>
+      </c>
       <c r="M168" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N168" t="str">
@@ -14172,8 +14820,12 @@
       <c r="K169" t="s">
         <v>652</v>
       </c>
+      <c r="L169" t="str">
+        <f t="shared" si="8"/>
+        <v>ATU63283</v>
+      </c>
       <c r="M169" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N169" t="str">
@@ -14215,8 +14867,12 @@
       <c r="K170" t="s">
         <v>652</v>
       </c>
+      <c r="L170" t="str">
+        <f t="shared" si="8"/>
+        <v>ATU64276</v>
+      </c>
       <c r="M170" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N170" t="str">
@@ -14258,8 +14914,12 @@
       <c r="K171" t="s">
         <v>652</v>
       </c>
+      <c r="L171" t="str">
+        <f t="shared" si="8"/>
+        <v>ATU68567</v>
+      </c>
       <c r="M171" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N171" t="str">
@@ -14301,8 +14961,12 @@
       <c r="K172" t="s">
         <v>876</v>
       </c>
+      <c r="L172" t="str">
+        <f t="shared" si="8"/>
+        <v>ATU66303</v>
+      </c>
       <c r="M172" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N172" t="str">
@@ -14344,8 +15008,12 @@
       <c r="K173" t="s">
         <v>215</v>
       </c>
+      <c r="L173" t="str">
+        <f t="shared" si="8"/>
+        <v>ATU66654</v>
+      </c>
       <c r="M173" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N173" t="str">
@@ -14387,8 +15055,12 @@
       <c r="K174" t="s">
         <v>737</v>
       </c>
+      <c r="L174" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX78566</v>
+      </c>
       <c r="M174" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N174" t="str">
@@ -14430,8 +15102,12 @@
       <c r="K175" t="s">
         <v>62</v>
       </c>
+      <c r="L175" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX78593</v>
+      </c>
       <c r="M175" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N175" t="str">
@@ -14473,8 +15149,12 @@
       <c r="K176" t="s">
         <v>80</v>
       </c>
+      <c r="L176" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX79249</v>
+      </c>
       <c r="M176" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N176" t="str">
@@ -14516,8 +15196,12 @@
       <c r="K177" t="s">
         <v>107</v>
       </c>
+      <c r="L177" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX79747</v>
+      </c>
       <c r="M177" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N177" t="str">
@@ -14559,8 +15243,12 @@
       <c r="K178" t="s">
         <v>907</v>
       </c>
+      <c r="L178" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX80497</v>
+      </c>
       <c r="M178" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N178" t="str">
@@ -14602,8 +15290,12 @@
       <c r="K179" t="s">
         <v>907</v>
       </c>
+      <c r="L179" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX81216</v>
+      </c>
       <c r="M179" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N179" t="str">
@@ -14645,8 +15337,12 @@
       <c r="K180" t="s">
         <v>107</v>
       </c>
+      <c r="L180" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX81938</v>
+      </c>
       <c r="M180" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N180" t="str">
@@ -14688,8 +15384,12 @@
       <c r="K181" t="s">
         <v>80</v>
       </c>
+      <c r="L181" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX82357</v>
+      </c>
       <c r="M181" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N181" t="str">
@@ -14731,8 +15431,12 @@
       <c r="K182" t="s">
         <v>62</v>
       </c>
+      <c r="L182" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX82901</v>
+      </c>
       <c r="M182" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N182" t="str">
@@ -14774,8 +15478,12 @@
       <c r="K183" t="s">
         <v>62</v>
       </c>
+      <c r="L183" t="str">
+        <f t="shared" si="8"/>
+        <v>ATX82929</v>
+      </c>
       <c r="M183" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N183" t="str">
@@ -14817,8 +15525,12 @@
       <c r="K184" t="s">
         <v>215</v>
       </c>
+      <c r="L184" t="str">
+        <f t="shared" si="8"/>
+        <v>AVM45097</v>
+      </c>
       <c r="M184" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N184" t="str">
@@ -14860,8 +15572,12 @@
       <c r="K185" t="s">
         <v>188</v>
       </c>
+      <c r="L185" t="str">
+        <f t="shared" si="8"/>
+        <v>AVM45416</v>
+      </c>
       <c r="M185" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N185" t="str">
@@ -14906,8 +15622,12 @@
       <c r="K186" t="s">
         <v>652</v>
       </c>
+      <c r="L186" t="str">
+        <f t="shared" si="8"/>
+        <v>AVQ28425</v>
+      </c>
       <c r="M186" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N186" t="str">
@@ -14949,8 +15669,12 @@
       <c r="K187" t="s">
         <v>652</v>
       </c>
+      <c r="L187" t="str">
+        <f t="shared" si="8"/>
+        <v>AVQ29261</v>
+      </c>
       <c r="M187" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N187" t="str">
@@ -14992,8 +15716,12 @@
       <c r="K188" t="s">
         <v>962</v>
       </c>
+      <c r="L188" t="str">
+        <f t="shared" si="8"/>
+        <v>AWG41585</v>
+      </c>
       <c r="M188" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N188" t="str">
@@ -15035,8 +15763,12 @@
       <c r="K189" t="s">
         <v>188</v>
       </c>
+      <c r="L189" t="str">
+        <f t="shared" si="8"/>
+        <v>AWI08419</v>
+      </c>
       <c r="M189" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N189" t="str">
@@ -15081,8 +15813,12 @@
       <c r="K190" t="s">
         <v>652</v>
       </c>
+      <c r="L190" t="str">
+        <f t="shared" si="8"/>
+        <v>AWI08883</v>
+      </c>
       <c r="M190" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N190" t="str">
@@ -15124,8 +15860,12 @@
       <c r="K191" t="s">
         <v>215</v>
       </c>
+      <c r="L191" t="str">
+        <f t="shared" si="8"/>
+        <v>AWV88603</v>
+      </c>
       <c r="M191" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N191" t="str">
@@ -15167,8 +15907,12 @@
       <c r="K192" t="s">
         <v>652</v>
       </c>
+      <c r="L192" t="str">
+        <f t="shared" si="8"/>
+        <v>AWV89331</v>
+      </c>
       <c r="M192" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N192" t="str">
@@ -15210,8 +15954,12 @@
       <c r="K193" t="s">
         <v>188</v>
       </c>
+      <c r="L193" t="str">
+        <f t="shared" si="8"/>
+        <v>AWV89462</v>
+      </c>
       <c r="M193" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N193" t="str">
@@ -15256,8 +16004,12 @@
       <c r="K194" t="s">
         <v>997</v>
       </c>
+      <c r="L194" t="str">
+        <f t="shared" si="8"/>
+        <v>BAC61767</v>
+      </c>
       <c r="M194" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N194" t="str">
@@ -15299,8 +16051,12 @@
       <c r="K195" t="s">
         <v>317</v>
       </c>
+      <c r="L195" t="str">
+        <f t="shared" si="8"/>
+        <v>BAC89081</v>
+      </c>
       <c r="M195" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N195" t="str">
@@ -15342,8 +16098,12 @@
       <c r="K196" t="s">
         <v>569</v>
       </c>
+      <c r="L196" t="str">
+        <f t="shared" si="8"/>
+        <v>BAD41955</v>
+      </c>
       <c r="M196" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N196" t="str">
@@ -15385,8 +16145,12 @@
       <c r="K197" t="s">
         <v>44</v>
       </c>
+      <c r="L197" t="str">
+        <f t="shared" si="8"/>
+        <v>BAG40199</v>
+      </c>
       <c r="M197" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N197" t="str">
@@ -15428,8 +16192,12 @@
       <c r="K198" t="s">
         <v>1018</v>
       </c>
+      <c r="L198" t="str">
+        <f t="shared" si="8"/>
+        <v>BAH37337</v>
+      </c>
       <c r="M198" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N198" t="str">
@@ -15471,8 +16239,12 @@
       <c r="K199" t="s">
         <v>575</v>
       </c>
+      <c r="L199" t="str">
+        <f t="shared" si="8"/>
+        <v>BAM06956</v>
+      </c>
       <c r="M199" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>y</v>
       </c>
       <c r="N199" t="str">
@@ -15514,12 +16286,16 @@
       <c r="K200" t="s">
         <v>569</v>
       </c>
+      <c r="L200" t="str">
+        <f t="shared" si="8"/>
+        <v>BAS27508</v>
+      </c>
       <c r="M200" s="4" t="str">
-        <f t="shared" ref="M200:M263" si="5">IF(F200=I200,"y","")</f>
+        <f t="shared" ref="M200:M263" si="9">IF(F200=I200,"y","")</f>
         <v>y</v>
       </c>
       <c r="N200" t="str">
-        <f t="shared" ref="N200:N263" si="6">IF(D200=F200,"yes, fix please","")</f>
+        <f t="shared" ref="N200:N263" si="10">IF(D200=F200,"yes, fix please","")</f>
         <v/>
       </c>
     </row>
@@ -15557,12 +16333,16 @@
       <c r="K201" t="s">
         <v>652</v>
       </c>
+      <c r="L201" t="str">
+        <f t="shared" si="8"/>
+        <v>BAS27558</v>
+      </c>
       <c r="M201" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15600,12 +16380,16 @@
       <c r="K202" t="s">
         <v>119</v>
       </c>
+      <c r="L202" t="str">
+        <f t="shared" si="8"/>
+        <v>BBM36825</v>
+      </c>
       <c r="M202" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15643,12 +16427,16 @@
       <c r="K203" t="s">
         <v>215</v>
       </c>
+      <c r="L203" t="str">
+        <f t="shared" si="8"/>
+        <v>BCB95124</v>
+      </c>
       <c r="M203" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15686,12 +16474,16 @@
       <c r="K204" t="s">
         <v>62</v>
       </c>
+      <c r="L204" t="str">
+        <f t="shared" si="8"/>
+        <v>BCB96092</v>
+      </c>
       <c r="M204" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15729,12 +16521,16 @@
       <c r="K205" t="s">
         <v>188</v>
       </c>
+      <c r="L205" t="str">
+        <f t="shared" si="8"/>
+        <v>BCB96095</v>
+      </c>
       <c r="M205" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15772,12 +16568,16 @@
       <c r="K206" t="s">
         <v>652</v>
       </c>
+      <c r="L206" t="str">
+        <f t="shared" si="8"/>
+        <v>BCI63437</v>
+      </c>
       <c r="M206" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15815,12 +16615,16 @@
       <c r="K207" t="s">
         <v>652</v>
       </c>
+      <c r="L207" t="str">
+        <f t="shared" si="8"/>
+        <v>BCI63566</v>
+      </c>
       <c r="M207" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15858,12 +16662,16 @@
       <c r="K208" t="s">
         <v>215</v>
       </c>
+      <c r="L208" t="str">
+        <f t="shared" si="8"/>
+        <v>BDB95990</v>
+      </c>
       <c r="M208" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15901,12 +16709,16 @@
       <c r="K209" t="s">
         <v>1074</v>
       </c>
+      <c r="L209" t="str">
+        <f t="shared" si="8"/>
+        <v>CAB13241</v>
+      </c>
       <c r="M209" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15944,12 +16756,16 @@
       <c r="K210" t="s">
         <v>1080</v>
       </c>
+      <c r="L210" t="str">
+        <f t="shared" si="8"/>
+        <v>CAD71936</v>
+      </c>
       <c r="M210" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -15987,12 +16803,16 @@
       <c r="K211" t="s">
         <v>1086</v>
       </c>
+      <c r="L211" t="str">
+        <f t="shared" si="8"/>
+        <v>CAD73494</v>
+      </c>
       <c r="M211" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16030,12 +16850,16 @@
       <c r="K212" t="s">
         <v>305</v>
       </c>
+      <c r="L212" t="str">
+        <f t="shared" si="8"/>
+        <v>CAD74694</v>
+      </c>
       <c r="M212" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P212" t="s">
@@ -16076,12 +16900,16 @@
       <c r="K213" t="s">
         <v>1096</v>
       </c>
+      <c r="L213" t="str">
+        <f t="shared" si="8"/>
+        <v>CAD76170</v>
+      </c>
       <c r="M213" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16119,12 +16947,16 @@
       <c r="K214" t="s">
         <v>1102</v>
       </c>
+      <c r="L214" t="str">
+        <f t="shared" si="8"/>
+        <v>CAD76945</v>
+      </c>
       <c r="M214" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16162,12 +16994,16 @@
       <c r="K215" t="s">
         <v>1108</v>
       </c>
+      <c r="L215" t="str">
+        <f t="shared" si="8"/>
+        <v>CAD77368</v>
+      </c>
       <c r="M215" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16205,12 +17041,16 @@
       <c r="K216" t="s">
         <v>569</v>
       </c>
+      <c r="L216" t="str">
+        <f t="shared" si="8"/>
+        <v>CCG57547</v>
+      </c>
       <c r="M216" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16248,12 +17088,16 @@
       <c r="K217" t="s">
         <v>1119</v>
       </c>
+      <c r="L217" t="str">
+        <f t="shared" si="8"/>
+        <v>CCW36280</v>
+      </c>
       <c r="M217" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16291,12 +17135,16 @@
       <c r="K218" t="s">
         <v>1125</v>
       </c>
+      <c r="L218" t="str">
+        <f t="shared" si="8"/>
+        <v>CDK97636</v>
+      </c>
       <c r="M218" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16334,12 +17182,16 @@
       <c r="K219" t="s">
         <v>44</v>
       </c>
+      <c r="L219" t="str">
+        <f t="shared" si="8"/>
+        <v>CDK97995</v>
+      </c>
       <c r="M219" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16377,12 +17229,16 @@
       <c r="K220" t="s">
         <v>1136</v>
       </c>
+      <c r="L220" t="str">
+        <f t="shared" si="8"/>
+        <v>CDK98227</v>
+      </c>
       <c r="M220" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16420,12 +17276,16 @@
       <c r="K221" t="s">
         <v>305</v>
       </c>
+      <c r="L221" t="str">
+        <f t="shared" si="8"/>
+        <v>EKT85765</v>
+      </c>
       <c r="M221" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P221" t="s">
@@ -16466,12 +17326,16 @@
       <c r="K222" t="s">
         <v>569</v>
       </c>
+      <c r="L222" t="str">
+        <f t="shared" si="8"/>
+        <v>QAR32386</v>
+      </c>
       <c r="M222" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16509,12 +17373,16 @@
       <c r="K223" t="s">
         <v>652</v>
       </c>
+      <c r="L223" t="str">
+        <f t="shared" si="8"/>
+        <v>QAR32928</v>
+      </c>
       <c r="M223" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16552,12 +17420,16 @@
       <c r="K224" t="s">
         <v>652</v>
       </c>
+      <c r="L224" t="str">
+        <f t="shared" si="8"/>
+        <v>QAR33429</v>
+      </c>
       <c r="M224" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16595,12 +17467,16 @@
       <c r="K225" t="s">
         <v>717</v>
       </c>
+      <c r="L225" t="str">
+        <f t="shared" si="8"/>
+        <v>QAT17177</v>
+      </c>
       <c r="M225" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16638,12 +17514,16 @@
       <c r="K226" t="s">
         <v>575</v>
       </c>
+      <c r="L226" t="str">
+        <f t="shared" si="8"/>
+        <v>QAT17589</v>
+      </c>
       <c r="M226" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16681,12 +17561,16 @@
       <c r="K227" t="s">
         <v>569</v>
       </c>
+      <c r="L227" t="str">
+        <f t="shared" si="8"/>
+        <v>QAT61615</v>
+      </c>
       <c r="M227" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16724,12 +17608,16 @@
       <c r="K228" t="s">
         <v>188</v>
       </c>
+      <c r="L228" t="str">
+        <f t="shared" si="8"/>
+        <v>QAT63224</v>
+      </c>
       <c r="M228" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16767,12 +17655,16 @@
       <c r="K229" t="s">
         <v>765</v>
       </c>
+      <c r="L229" t="str">
+        <f t="shared" ref="L229:L292" si="11">IF(I229="NA",F229,I229)</f>
+        <v>QDU25288</v>
+      </c>
       <c r="M229" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16810,12 +17702,16 @@
       <c r="K230" t="s">
         <v>717</v>
       </c>
+      <c r="L230" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU25321</v>
+      </c>
       <c r="M230" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16853,12 +17749,16 @@
       <c r="K231" t="s">
         <v>694</v>
       </c>
+      <c r="L231" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU25760</v>
+      </c>
       <c r="M231" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16896,12 +17796,16 @@
       <c r="K232" t="s">
         <v>199</v>
       </c>
+      <c r="L232" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU27582</v>
+      </c>
       <c r="M232" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16939,12 +17843,16 @@
       <c r="K233" t="s">
         <v>694</v>
       </c>
+      <c r="L233" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU29131</v>
+      </c>
       <c r="M233" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -16982,12 +17890,16 @@
       <c r="K234" t="s">
         <v>717</v>
       </c>
+      <c r="L234" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU30850</v>
+      </c>
       <c r="M234" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17025,12 +17937,16 @@
       <c r="K235" t="s">
         <v>199</v>
       </c>
+      <c r="L235" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU31293</v>
+      </c>
       <c r="M235" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17068,12 +17984,16 @@
       <c r="K236" t="s">
         <v>199</v>
       </c>
+      <c r="L236" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU92955</v>
+      </c>
       <c r="M236" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17111,12 +18031,16 @@
       <c r="K237" t="s">
         <v>694</v>
       </c>
+      <c r="L237" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU93365</v>
+      </c>
       <c r="M237" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17154,12 +18078,16 @@
       <c r="K238" t="s">
         <v>710</v>
       </c>
+      <c r="L238" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU94731</v>
+      </c>
       <c r="M238" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17197,12 +18125,16 @@
       <c r="K239" t="s">
         <v>199</v>
       </c>
+      <c r="L239" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU94894</v>
+      </c>
       <c r="M239" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17240,12 +18172,16 @@
       <c r="K240" t="s">
         <v>765</v>
       </c>
+      <c r="L240" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU97594</v>
+      </c>
       <c r="M240" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17283,12 +18219,16 @@
       <c r="K241" t="s">
         <v>199</v>
       </c>
+      <c r="L241" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU98189</v>
+      </c>
       <c r="M241" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17326,12 +18266,16 @@
       <c r="K242" t="s">
         <v>694</v>
       </c>
+      <c r="L242" t="str">
+        <f t="shared" si="11"/>
+        <v>QDU99089</v>
+      </c>
       <c r="M242" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17369,12 +18313,16 @@
       <c r="K243" t="s">
         <v>569</v>
       </c>
+      <c r="L243" t="str">
+        <f t="shared" si="11"/>
+        <v>QEO41880</v>
+      </c>
       <c r="M243" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17412,12 +18360,16 @@
       <c r="K244" t="s">
         <v>1257</v>
       </c>
+      <c r="L244" t="str">
+        <f t="shared" si="11"/>
+        <v>QFG02533</v>
+      </c>
       <c r="M244" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17455,12 +18407,16 @@
       <c r="K245" t="s">
         <v>652</v>
       </c>
+      <c r="L245" t="str">
+        <f t="shared" si="11"/>
+        <v>QIZ70554</v>
+      </c>
       <c r="M245" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17498,12 +18454,16 @@
       <c r="K246" t="s">
         <v>652</v>
       </c>
+      <c r="L246" t="str">
+        <f t="shared" si="11"/>
+        <v>QIZ71788</v>
+      </c>
       <c r="M246" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17541,12 +18501,16 @@
       <c r="K247" t="s">
         <v>652</v>
       </c>
+      <c r="L247" t="str">
+        <f t="shared" si="11"/>
+        <v>QJE97382</v>
+      </c>
       <c r="M247" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17584,12 +18548,16 @@
       <c r="K248" t="s">
         <v>652</v>
       </c>
+      <c r="L248" t="str">
+        <f t="shared" si="11"/>
+        <v>QJE99326</v>
+      </c>
       <c r="M248" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17627,12 +18595,16 @@
       <c r="K249" t="s">
         <v>188</v>
       </c>
+      <c r="L249" t="str">
+        <f t="shared" si="11"/>
+        <v>QJR34786</v>
+      </c>
       <c r="M249" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17670,12 +18642,16 @@
       <c r="K250" t="s">
         <v>652</v>
       </c>
+      <c r="L250" t="str">
+        <f t="shared" si="11"/>
+        <v>QJR34846</v>
+      </c>
       <c r="M250" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17713,12 +18689,16 @@
       <c r="K251" t="s">
         <v>1257</v>
       </c>
+      <c r="L251" t="str">
+        <f t="shared" si="11"/>
+        <v>QJR36485</v>
+      </c>
       <c r="M251" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17756,12 +18736,16 @@
       <c r="K252" t="s">
         <v>652</v>
       </c>
+      <c r="L252" t="str">
+        <f t="shared" si="11"/>
+        <v>QNQ10684</v>
+      </c>
       <c r="M252" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N252" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17799,12 +18783,16 @@
       <c r="K253" t="s">
         <v>652</v>
       </c>
+      <c r="L253" t="str">
+        <f t="shared" si="11"/>
+        <v>QOY87642</v>
+      </c>
       <c r="M253" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N253" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17842,12 +18830,16 @@
       <c r="K254" t="s">
         <v>1257</v>
       </c>
+      <c r="L254" t="str">
+        <f t="shared" si="11"/>
+        <v>QOY88867</v>
+      </c>
       <c r="M254" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N254" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17885,12 +18877,16 @@
       <c r="K255" t="s">
         <v>652</v>
       </c>
+      <c r="L255" t="str">
+        <f t="shared" si="11"/>
+        <v>QQS88171</v>
+      </c>
       <c r="M255" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17928,12 +18924,16 @@
       <c r="K256" t="s">
         <v>652</v>
       </c>
+      <c r="L256" t="str">
+        <f t="shared" si="11"/>
+        <v>QQS88497</v>
+      </c>
       <c r="M256" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N256" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -17971,12 +18971,16 @@
       <c r="K257" t="s">
         <v>1257</v>
       </c>
+      <c r="L257" t="str">
+        <f t="shared" si="11"/>
+        <v>QTD53837</v>
+      </c>
       <c r="M257" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N257" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -18014,12 +19018,16 @@
       <c r="K258" t="s">
         <v>652</v>
       </c>
+      <c r="L258" t="str">
+        <f t="shared" si="11"/>
+        <v>QVL32580</v>
+      </c>
       <c r="M258" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N258" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -18057,12 +19065,16 @@
       <c r="K259" t="s">
         <v>652</v>
       </c>
+      <c r="L259" t="str">
+        <f t="shared" si="11"/>
+        <v>QVL32860</v>
+      </c>
       <c r="M259" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N259" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -18100,12 +19112,16 @@
       <c r="K260" t="s">
         <v>652</v>
       </c>
+      <c r="L260" t="str">
+        <f t="shared" si="11"/>
+        <v>QZZ19519</v>
+      </c>
       <c r="M260" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N260" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -18143,12 +19159,16 @@
       <c r="K261" t="s">
         <v>652</v>
       </c>
+      <c r="L261" t="str">
+        <f t="shared" si="11"/>
+        <v>QZZ21679</v>
+      </c>
       <c r="M261" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N261" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -18186,12 +19206,16 @@
       <c r="K262" t="s">
         <v>652</v>
       </c>
+      <c r="L262" t="str">
+        <f t="shared" si="11"/>
+        <v>QZZ22142</v>
+      </c>
       <c r="M262" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N262" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -18229,12 +19253,16 @@
       <c r="K263" t="s">
         <v>652</v>
       </c>
+      <c r="L263" t="str">
+        <f t="shared" si="11"/>
+        <v>QZZ21400</v>
+      </c>
       <c r="M263" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>y</v>
       </c>
       <c r="N263" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -18272,12 +19300,16 @@
       <c r="K264" t="s">
         <v>1368</v>
       </c>
+      <c r="L264" t="str">
+        <f t="shared" si="11"/>
+        <v>SEH78532</v>
+      </c>
       <c r="M264" s="4" t="str">
-        <f t="shared" ref="M264:M327" si="7">IF(F264=I264,"y","")</f>
+        <f t="shared" ref="M264:M327" si="12">IF(F264=I264,"y","")</f>
         <v>y</v>
       </c>
       <c r="N264" t="str">
-        <f t="shared" ref="N264:N327" si="8">IF(D264=F264,"yes, fix please","")</f>
+        <f t="shared" ref="N264:N327" si="13">IF(D264=F264,"yes, fix please","")</f>
         <v/>
       </c>
     </row>
@@ -18315,12 +19347,16 @@
       <c r="K265" t="s">
         <v>1368</v>
       </c>
+      <c r="L265" t="str">
+        <f t="shared" si="11"/>
+        <v>SEH93343</v>
+      </c>
       <c r="M265" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N265" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18358,12 +19394,16 @@
       <c r="K266" t="s">
         <v>305</v>
       </c>
+      <c r="L266" t="str">
+        <f t="shared" si="11"/>
+        <v>SEH96632</v>
+      </c>
       <c r="M266" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N266" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P266" t="s">
@@ -18404,12 +19444,16 @@
       <c r="K267" t="s">
         <v>1368</v>
       </c>
+      <c r="L267" t="str">
+        <f t="shared" si="11"/>
+        <v>SEI00267</v>
+      </c>
       <c r="M267" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N267" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18447,12 +19491,16 @@
       <c r="K268" t="s">
         <v>694</v>
       </c>
+      <c r="L268" t="str">
+        <f t="shared" si="11"/>
+        <v>SLM46358</v>
+      </c>
       <c r="M268" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N268" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18490,12 +19538,16 @@
       <c r="K269" t="s">
         <v>1125</v>
       </c>
+      <c r="L269" t="str">
+        <f t="shared" si="11"/>
+        <v>SNW07145</v>
+      </c>
       <c r="M269" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N269" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18533,12 +19585,16 @@
       <c r="K270" t="s">
         <v>652</v>
       </c>
+      <c r="L270" t="str">
+        <f t="shared" si="11"/>
+        <v>UAK42983</v>
+      </c>
       <c r="M270" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N270" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18576,12 +19632,16 @@
       <c r="K271" t="s">
         <v>317</v>
       </c>
+      <c r="L271" t="str">
+        <f t="shared" si="11"/>
+        <v>UBQ04635</v>
+      </c>
       <c r="M271" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N271" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18619,12 +19679,16 @@
       <c r="K272" t="s">
         <v>569</v>
       </c>
+      <c r="L272" t="str">
+        <f t="shared" si="11"/>
+        <v>UBQ05765</v>
+      </c>
       <c r="M272" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N272" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18662,12 +19726,16 @@
       <c r="K273" t="s">
         <v>652</v>
       </c>
+      <c r="L273" t="str">
+        <f t="shared" si="11"/>
+        <v>UBQ05953</v>
+      </c>
       <c r="M273" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N273" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18705,12 +19773,16 @@
       <c r="K274" t="s">
         <v>652</v>
       </c>
+      <c r="L274" t="str">
+        <f t="shared" si="11"/>
+        <v>UBQ06173</v>
+      </c>
       <c r="M274" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N274" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18748,12 +19820,16 @@
       <c r="K275" t="s">
         <v>1257</v>
       </c>
+      <c r="L275" t="str">
+        <f t="shared" si="11"/>
+        <v>UBQ06689</v>
+      </c>
       <c r="M275" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N275" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18791,12 +19867,16 @@
       <c r="K276" t="s">
         <v>652</v>
       </c>
+      <c r="L276" t="str">
+        <f t="shared" si="11"/>
+        <v>UNU17463</v>
+      </c>
       <c r="M276" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N276" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18834,12 +19914,16 @@
       <c r="K277" t="s">
         <v>652</v>
       </c>
+      <c r="L277" t="str">
+        <f t="shared" si="11"/>
+        <v>UNU18281</v>
+      </c>
       <c r="M277" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N277" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18877,12 +19961,16 @@
       <c r="K278" t="s">
         <v>569</v>
       </c>
+      <c r="L278" t="str">
+        <f t="shared" si="11"/>
+        <v>UOY13874</v>
+      </c>
       <c r="M278" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N278" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18920,12 +20008,16 @@
       <c r="K279" t="s">
         <v>569</v>
       </c>
+      <c r="L279" t="str">
+        <f t="shared" si="11"/>
+        <v>UPH48257</v>
+      </c>
       <c r="M279" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N279" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -18963,12 +20055,16 @@
       <c r="K280" t="s">
         <v>765</v>
       </c>
+      <c r="L280" t="str">
+        <f t="shared" si="11"/>
+        <v>USF23675</v>
+      </c>
       <c r="M280" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N280" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19006,12 +20102,16 @@
       <c r="K281" t="s">
         <v>15</v>
       </c>
+      <c r="L281" t="str">
+        <f t="shared" si="11"/>
+        <v>USF25004</v>
+      </c>
       <c r="M281" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N281" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19049,12 +20149,16 @@
       <c r="K282" t="s">
         <v>188</v>
       </c>
+      <c r="L282" t="str">
+        <f t="shared" si="11"/>
+        <v>AAC07763</v>
+      </c>
       <c r="M282" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N282" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19092,12 +20196,16 @@
       <c r="K283" t="s">
         <v>1465</v>
       </c>
+      <c r="L283" t="str">
+        <f t="shared" si="11"/>
+        <v>ABC77077</v>
+      </c>
       <c r="M283" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N283" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19135,12 +20243,16 @@
       <c r="K284" t="s">
         <v>1472</v>
       </c>
+      <c r="L284" t="str">
+        <f t="shared" si="11"/>
+        <v>ABQ61090</v>
+      </c>
       <c r="M284" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N284" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19178,12 +20290,16 @@
       <c r="K285" t="s">
         <v>215</v>
       </c>
+      <c r="L285" t="str">
+        <f t="shared" si="11"/>
+        <v>ABQ60278</v>
+      </c>
       <c r="M285" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N285" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19221,12 +20337,16 @@
       <c r="K286" t="s">
         <v>199</v>
       </c>
+      <c r="L286" t="str">
+        <f t="shared" si="11"/>
+        <v>ACX73655</v>
+      </c>
       <c r="M286" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N286" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19264,12 +20384,16 @@
       <c r="K287" t="s">
         <v>199</v>
       </c>
+      <c r="L287" t="str">
+        <f t="shared" si="11"/>
+        <v>ACX74511</v>
+      </c>
       <c r="M287" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N287" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19307,12 +20431,16 @@
       <c r="K288" t="s">
         <v>199</v>
       </c>
+      <c r="L288" t="str">
+        <f t="shared" si="11"/>
+        <v>ADD67746</v>
+      </c>
       <c r="M288" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N288" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19350,12 +20478,16 @@
       <c r="K289" t="s">
         <v>199</v>
       </c>
+      <c r="L289" t="str">
+        <f t="shared" si="11"/>
+        <v>ADD68375</v>
+      </c>
       <c r="M289" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N289" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19393,12 +20525,16 @@
       <c r="K290" t="s">
         <v>1503</v>
       </c>
+      <c r="L290" t="str">
+        <f t="shared" si="11"/>
+        <v>ADE86106</v>
+      </c>
       <c r="M290" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N290" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19436,12 +20572,16 @@
       <c r="K291" t="s">
         <v>1509</v>
       </c>
+      <c r="L291" t="str">
+        <f t="shared" si="11"/>
+        <v>ADO72878</v>
+      </c>
       <c r="M291" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N291" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19479,12 +20619,16 @@
       <c r="K292" t="s">
         <v>199</v>
       </c>
+      <c r="L292" t="str">
+        <f t="shared" si="11"/>
+        <v>ADV60825</v>
+      </c>
       <c r="M292" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N292" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19522,12 +20666,16 @@
       <c r="K293" t="s">
         <v>199</v>
       </c>
+      <c r="L293" t="str">
+        <f t="shared" ref="L293:L356" si="14">IF(I293="NA",F293,I293)</f>
+        <v>ADV63188</v>
+      </c>
       <c r="M293" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N293" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19565,12 +20713,16 @@
       <c r="K294" t="s">
         <v>199</v>
       </c>
+      <c r="L294" t="str">
+        <f t="shared" si="14"/>
+        <v>ADV63709</v>
+      </c>
       <c r="M294" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N294" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19608,12 +20760,16 @@
       <c r="K295" t="s">
         <v>199</v>
       </c>
+      <c r="L295" t="str">
+        <f t="shared" si="14"/>
+        <v>ADV63891</v>
+      </c>
       <c r="M295" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N295" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19651,12 +20807,16 @@
       <c r="K296" t="s">
         <v>1540</v>
       </c>
+      <c r="L296" t="str">
+        <f t="shared" si="14"/>
+        <v>AEM21070</v>
+      </c>
       <c r="M296" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N296" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19694,12 +20854,16 @@
       <c r="K297" t="s">
         <v>1546</v>
       </c>
+      <c r="L297" t="str">
+        <f t="shared" si="14"/>
+        <v>AFL86416</v>
+      </c>
       <c r="M297" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N297" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19737,12 +20901,16 @@
       <c r="K298" t="s">
         <v>1546</v>
       </c>
+      <c r="L298" t="str">
+        <f t="shared" si="14"/>
+        <v>AFL88266</v>
+      </c>
       <c r="M298" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N298" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19780,12 +20948,16 @@
       <c r="K299" t="s">
         <v>1557</v>
       </c>
+      <c r="L299" t="str">
+        <f t="shared" si="14"/>
+        <v>AFL88474</v>
+      </c>
       <c r="M299" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N299" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19823,12 +20995,16 @@
       <c r="K300" t="s">
         <v>1546</v>
       </c>
+      <c r="L300" t="str">
+        <f t="shared" si="14"/>
+        <v>AFL88607</v>
+      </c>
       <c r="M300" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N300" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19866,12 +21042,16 @@
       <c r="K301" t="s">
         <v>1557</v>
       </c>
+      <c r="L301" t="str">
+        <f t="shared" si="14"/>
+        <v>AFL88815</v>
+      </c>
       <c r="M301" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N301" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19909,12 +21089,16 @@
       <c r="K302" t="s">
         <v>1472</v>
       </c>
+      <c r="L302" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ33284</v>
+      </c>
       <c r="M302" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N302" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19952,12 +21136,16 @@
       <c r="K303" t="s">
         <v>215</v>
       </c>
+      <c r="L303" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ33434</v>
+      </c>
       <c r="M303" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N303" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -19995,12 +21183,16 @@
       <c r="K304" t="s">
         <v>21</v>
       </c>
+      <c r="L304" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ29914</v>
+      </c>
       <c r="M304" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N304" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20038,12 +21230,16 @@
       <c r="K305" t="s">
         <v>683</v>
       </c>
+      <c r="L305" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ32917</v>
+      </c>
       <c r="M305" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N305" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20081,12 +21277,16 @@
       <c r="K306" t="s">
         <v>21</v>
       </c>
+      <c r="L306" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ55678</v>
+      </c>
       <c r="M306" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N306" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20124,12 +21324,16 @@
       <c r="K307" t="s">
         <v>215</v>
       </c>
+      <c r="L307" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ56355</v>
+      </c>
       <c r="M307" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N307" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20167,12 +21371,16 @@
       <c r="K308" t="s">
         <v>1472</v>
       </c>
+      <c r="L308" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ54906</v>
+      </c>
       <c r="M308" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N308" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20210,12 +21418,16 @@
       <c r="K309" t="s">
         <v>683</v>
       </c>
+      <c r="L309" t="str">
+        <f t="shared" si="14"/>
+        <v>AJJ55251</v>
+      </c>
       <c r="M309" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N309" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20253,12 +21465,16 @@
       <c r="K310" t="s">
         <v>1621</v>
       </c>
+      <c r="L310" t="str">
+        <f t="shared" si="14"/>
+        <v>AKD04822</v>
+      </c>
       <c r="M310" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20296,12 +21512,16 @@
       <c r="K311" t="s">
         <v>694</v>
       </c>
+      <c r="L311" t="str">
+        <f t="shared" si="14"/>
+        <v>AKJ64798</v>
+      </c>
       <c r="M311" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N311" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20339,12 +21559,16 @@
       <c r="K312" t="s">
         <v>1557</v>
       </c>
+      <c r="L312" t="str">
+        <f t="shared" si="14"/>
+        <v>ALF47868</v>
+      </c>
       <c r="M312" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N312" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20382,12 +21606,16 @@
       <c r="K313" t="s">
         <v>1638</v>
       </c>
+      <c r="L313" t="str">
+        <f t="shared" si="14"/>
+        <v>ALW88053</v>
+      </c>
       <c r="M313" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N313" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20425,12 +21653,16 @@
       <c r="K314" t="s">
         <v>652</v>
       </c>
+      <c r="L314" t="str">
+        <f t="shared" si="14"/>
+        <v>AQU99648</v>
+      </c>
       <c r="M314" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N314" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20468,12 +21700,16 @@
       <c r="K315" t="s">
         <v>717</v>
       </c>
+      <c r="L315" t="str">
+        <f t="shared" si="14"/>
+        <v>ARN57241</v>
+      </c>
       <c r="M315" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N315" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20511,12 +21747,16 @@
       <c r="K316" t="s">
         <v>1465</v>
       </c>
+      <c r="L316" t="str">
+        <f t="shared" si="14"/>
+        <v>ATO49113</v>
+      </c>
       <c r="M316" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N316" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20554,12 +21794,16 @@
       <c r="K317" t="s">
         <v>1656</v>
       </c>
+      <c r="L317" t="str">
+        <f t="shared" si="14"/>
+        <v>ATU65954</v>
+      </c>
       <c r="M317" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N317" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20597,12 +21841,16 @@
       <c r="K318" t="s">
         <v>652</v>
       </c>
+      <c r="L318" t="str">
+        <f t="shared" si="14"/>
+        <v>AVQ29522</v>
+      </c>
       <c r="M318" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N318" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -20640,12 +21888,16 @@
       <c r="K319" t="s">
         <v>188</v>
       </c>
+      <c r="L319" t="str">
+        <f t="shared" si="14"/>
+        <v>AWV88046</v>
+      </c>
       <c r="M319" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N319" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -20683,12 +21935,16 @@
       <c r="K320" t="s">
         <v>188</v>
       </c>
+      <c r="L320" t="str">
+        <f t="shared" si="14"/>
+        <v>AWV89790</v>
+      </c>
       <c r="M320" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N320" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -20726,12 +21982,16 @@
       <c r="K321" t="s">
         <v>1678</v>
       </c>
+      <c r="L321" t="str">
+        <f t="shared" si="14"/>
+        <v>BAC58953</v>
+      </c>
       <c r="M321" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N321" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20769,12 +22029,16 @@
       <c r="K322" t="s">
         <v>1685</v>
       </c>
+      <c r="L322" t="str">
+        <f t="shared" si="14"/>
+        <v>BAC59321</v>
+      </c>
       <c r="M322" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N322" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20812,12 +22076,16 @@
       <c r="K323" t="s">
         <v>1692</v>
       </c>
+      <c r="L323" t="str">
+        <f t="shared" si="14"/>
+        <v>BAC62900</v>
+      </c>
       <c r="M323" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N323" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20855,12 +22123,16 @@
       <c r="K324" t="s">
         <v>305</v>
       </c>
+      <c r="L324" t="str">
+        <f t="shared" si="14"/>
+        <v>BAC89329</v>
+      </c>
       <c r="M324" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N324" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P324" t="s">
@@ -20901,12 +22173,16 @@
       <c r="K325" t="s">
         <v>305</v>
       </c>
+      <c r="L325" t="str">
+        <f t="shared" si="14"/>
+        <v>BAC90344</v>
+      </c>
       <c r="M325" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N325" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P325" t="s">
@@ -20947,12 +22223,16 @@
       <c r="K326" t="s">
         <v>1708</v>
       </c>
+      <c r="L326" t="str">
+        <f t="shared" si="14"/>
+        <v>BAH38986</v>
+      </c>
       <c r="M326" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N326" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -20990,12 +22270,16 @@
       <c r="K327" t="s">
         <v>1708</v>
       </c>
+      <c r="L327" t="str">
+        <f t="shared" si="14"/>
+        <v>BAH39051</v>
+      </c>
       <c r="M327" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>y</v>
       </c>
       <c r="N327" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -21033,12 +22317,16 @@
       <c r="K328" t="s">
         <v>1540</v>
       </c>
+      <c r="L328" t="str">
+        <f t="shared" si="14"/>
+        <v>BAM06017</v>
+      </c>
       <c r="M328" s="4" t="str">
-        <f t="shared" ref="M328:M385" si="9">IF(F328=I328,"y","")</f>
+        <f t="shared" ref="M328:M385" si="15">IF(F328=I328,"y","")</f>
         <v>y</v>
       </c>
       <c r="N328" t="str">
-        <f t="shared" ref="N328:N385" si="10">IF(D328=F328,"yes, fix please","")</f>
+        <f t="shared" ref="N328:N385" si="16">IF(D328=F328,"yes, fix please","")</f>
         <v/>
       </c>
     </row>
@@ -21076,12 +22364,16 @@
       <c r="K329" t="s">
         <v>1708</v>
       </c>
+      <c r="L329" t="str">
+        <f t="shared" si="14"/>
+        <v>BAM06052</v>
+      </c>
       <c r="M329" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N329" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21119,12 +22411,16 @@
       <c r="K330" t="s">
         <v>1729</v>
       </c>
+      <c r="L330" t="str">
+        <f t="shared" si="14"/>
+        <v>CAB14950</v>
+      </c>
       <c r="M330" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N330" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21162,12 +22458,16 @@
       <c r="K331" t="s">
         <v>1546</v>
       </c>
+      <c r="L331" t="str">
+        <f t="shared" si="14"/>
+        <v>CAL34349</v>
+      </c>
       <c r="M331" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N331" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21205,12 +22505,16 @@
       <c r="K332" t="s">
         <v>1540</v>
       </c>
+      <c r="L332" t="str">
+        <f t="shared" si="14"/>
+        <v>CAL34487</v>
+      </c>
       <c r="M332" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N332" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21248,12 +22552,16 @@
       <c r="K333" t="s">
         <v>1745</v>
       </c>
+      <c r="L333" t="str">
+        <f t="shared" si="14"/>
+        <v>CCB87486</v>
+      </c>
       <c r="M333" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N333" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21291,12 +22599,16 @@
       <c r="K334" t="s">
         <v>1745</v>
       </c>
+      <c r="L334" t="str">
+        <f t="shared" si="14"/>
+        <v>CCB87690</v>
+      </c>
       <c r="M334" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N334" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21334,12 +22646,16 @@
       <c r="K335" t="s">
         <v>1756</v>
       </c>
+      <c r="L335" t="str">
+        <f t="shared" si="14"/>
+        <v>CCW34550</v>
+      </c>
       <c r="M335" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N335" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21377,12 +22693,16 @@
       <c r="K336" t="s">
         <v>1756</v>
       </c>
+      <c r="L336" t="str">
+        <f t="shared" si="14"/>
+        <v>CCW35906</v>
+      </c>
       <c r="M336" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N336" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21420,12 +22740,16 @@
       <c r="K337" t="s">
         <v>1767</v>
       </c>
+      <c r="L337" t="str">
+        <f t="shared" si="14"/>
+        <v>CDK98315</v>
+      </c>
       <c r="M337" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N337" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21463,12 +22787,16 @@
       <c r="K338" t="s">
         <v>652</v>
       </c>
+      <c r="L338" t="str">
+        <f t="shared" si="14"/>
+        <v>EKT86398</v>
+      </c>
       <c r="M338" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N338" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21506,12 +22834,16 @@
       <c r="K339" t="s">
         <v>569</v>
       </c>
+      <c r="L339" t="str">
+        <f t="shared" si="14"/>
+        <v>EKT86692</v>
+      </c>
       <c r="M339" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N339" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21549,12 +22881,16 @@
       <c r="K340" t="s">
         <v>652</v>
       </c>
+      <c r="L340" t="str">
+        <f t="shared" si="14"/>
+        <v>EKT87440</v>
+      </c>
       <c r="M340" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N340" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21592,12 +22928,16 @@
       <c r="K341" t="s">
         <v>652</v>
       </c>
+      <c r="L341" t="str">
+        <f t="shared" si="14"/>
+        <v>EKT88183</v>
+      </c>
       <c r="M341" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N341" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21635,12 +22975,16 @@
       <c r="K342" t="s">
         <v>652</v>
       </c>
+      <c r="L342" t="str">
+        <f t="shared" si="14"/>
+        <v>QAR33782</v>
+      </c>
       <c r="M342" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N342" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21678,12 +23022,16 @@
       <c r="K343" t="s">
         <v>1803</v>
       </c>
+      <c r="L343" t="str">
+        <f t="shared" si="14"/>
+        <v>QDU26962</v>
+      </c>
       <c r="M343" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>y</v>
       </c>
       <c r="N343" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21721,12 +23069,16 @@
       <c r="K344" t="s">
         <v>317</v>
       </c>
+      <c r="L344" t="str">
+        <f t="shared" si="14"/>
+        <v>QEO41017</v>
+      </c>
       <c r="M344" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N344" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21764,12 +23116,16 @@
       <c r="K345" t="s">
         <v>652</v>
       </c>
+      <c r="L345" t="str">
+        <f t="shared" si="14"/>
+        <v>QEO43085</v>
+      </c>
       <c r="M345" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N345" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21807,12 +23163,16 @@
       <c r="K346" t="s">
         <v>652</v>
       </c>
+      <c r="L346" t="str">
+        <f t="shared" si="14"/>
+        <v>QJE95192</v>
+      </c>
       <c r="M346" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N346" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21850,12 +23210,16 @@
       <c r="K347" t="s">
         <v>652</v>
       </c>
+      <c r="L347" t="str">
+        <f t="shared" si="14"/>
+        <v>QJE97270</v>
+      </c>
       <c r="M347" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N347" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -21893,12 +23257,16 @@
       <c r="K348" t="s">
         <v>652</v>
       </c>
+      <c r="L348" t="str">
+        <f t="shared" si="14"/>
+        <v>QJE97561</v>
+      </c>
       <c r="M348" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N348" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -21936,12 +23304,16 @@
       <c r="K349" t="s">
         <v>652</v>
       </c>
+      <c r="L349" t="str">
+        <f t="shared" si="14"/>
+        <v>QJE97566</v>
+      </c>
       <c r="M349" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N349" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -21979,12 +23351,16 @@
       <c r="K350" t="s">
         <v>710</v>
       </c>
+      <c r="L350" t="str">
+        <f t="shared" si="14"/>
+        <v>QKY92912</v>
+      </c>
       <c r="M350" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N350" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22022,12 +23398,16 @@
       <c r="K351" t="s">
         <v>1472</v>
       </c>
+      <c r="L351" t="str">
+        <f t="shared" si="14"/>
+        <v>QKY94847</v>
+      </c>
       <c r="M351" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N351" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22065,12 +23445,16 @@
       <c r="K352" t="s">
         <v>569</v>
       </c>
+      <c r="L352" t="str">
+        <f t="shared" si="14"/>
+        <v>QKY95843</v>
+      </c>
       <c r="M352" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N352" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22108,12 +23492,16 @@
       <c r="K353" t="s">
         <v>215</v>
       </c>
+      <c r="L353" t="str">
+        <f t="shared" si="14"/>
+        <v>QNQ08777</v>
+      </c>
       <c r="M353" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N353" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22151,12 +23539,16 @@
       <c r="K354" t="s">
         <v>1257</v>
       </c>
+      <c r="L354" t="str">
+        <f t="shared" si="14"/>
+        <v>QNQ09342</v>
+      </c>
       <c r="M354" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N354" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22194,12 +23586,16 @@
       <c r="K355" t="s">
         <v>569</v>
       </c>
+      <c r="L355" t="str">
+        <f t="shared" si="14"/>
+        <v>QNQ09332</v>
+      </c>
       <c r="M355" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N355" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22237,12 +23633,16 @@
       <c r="K356" t="s">
         <v>1257</v>
       </c>
+      <c r="L356" t="str">
+        <f t="shared" si="14"/>
+        <v>QOY85081</v>
+      </c>
       <c r="M356" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N356" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22280,12 +23680,16 @@
       <c r="K357" t="s">
         <v>1257</v>
       </c>
+      <c r="L357" t="str">
+        <f t="shared" ref="L357:L385" si="17">IF(I357="NA",F357,I357)</f>
+        <v>QOY85399</v>
+      </c>
       <c r="M357" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N357" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22323,12 +23727,16 @@
       <c r="K358" t="s">
         <v>1257</v>
       </c>
+      <c r="L358" t="str">
+        <f t="shared" si="17"/>
+        <v>QOY86331</v>
+      </c>
       <c r="M358" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N358" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22366,12 +23774,16 @@
       <c r="K359" t="s">
         <v>652</v>
       </c>
+      <c r="L359" t="str">
+        <f t="shared" si="17"/>
+        <v>QOY88068</v>
+      </c>
       <c r="M359" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N359" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22409,12 +23821,16 @@
       <c r="K360" t="s">
         <v>1257</v>
       </c>
+      <c r="L360" t="str">
+        <f t="shared" si="17"/>
+        <v>QOY88834</v>
+      </c>
       <c r="M360" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N360" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22452,12 +23868,16 @@
       <c r="K361" t="s">
         <v>652</v>
       </c>
+      <c r="L361" t="str">
+        <f t="shared" si="17"/>
+        <v>QSR83869</v>
+      </c>
       <c r="M361" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N361" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22495,12 +23915,16 @@
       <c r="K362" t="s">
         <v>652</v>
       </c>
+      <c r="L362" t="str">
+        <f t="shared" si="17"/>
+        <v>QSR84173</v>
+      </c>
       <c r="M362" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N362" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22538,12 +23962,16 @@
       <c r="K363" t="s">
         <v>652</v>
       </c>
+      <c r="L363" t="str">
+        <f t="shared" si="17"/>
+        <v>QSR84627</v>
+      </c>
       <c r="M363" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N363" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22581,12 +24009,16 @@
       <c r="K364" t="s">
         <v>652</v>
       </c>
+      <c r="L364" t="str">
+        <f t="shared" si="17"/>
+        <v>QSR84344</v>
+      </c>
       <c r="M364" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N364" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22624,12 +24056,16 @@
       <c r="K365" t="s">
         <v>652</v>
       </c>
+      <c r="L365" t="str">
+        <f t="shared" si="17"/>
+        <v>QTD50765</v>
+      </c>
       <c r="M365" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N365" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22667,12 +24103,16 @@
       <c r="K366" t="s">
         <v>652</v>
       </c>
+      <c r="L366" t="str">
+        <f t="shared" si="17"/>
+        <v>QTD52660</v>
+      </c>
       <c r="M366" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N366" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22710,12 +24150,16 @@
       <c r="K367" t="s">
         <v>652</v>
       </c>
+      <c r="L367" t="str">
+        <f t="shared" si="17"/>
+        <v>QTD53279</v>
+      </c>
       <c r="M367" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N367" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22753,12 +24197,16 @@
       <c r="K368" t="s">
         <v>652</v>
       </c>
+      <c r="L368" t="str">
+        <f t="shared" si="17"/>
+        <v>QUV78832</v>
+      </c>
       <c r="M368" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N368" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22796,12 +24244,16 @@
       <c r="K369" t="s">
         <v>1472</v>
       </c>
+      <c r="L369" t="str">
+        <f t="shared" si="17"/>
+        <v>QXB09425</v>
+      </c>
       <c r="M369" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N369" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22839,12 +24291,16 @@
       <c r="K370" t="s">
         <v>710</v>
       </c>
+      <c r="L370" t="str">
+        <f t="shared" si="17"/>
+        <v>QXB11429</v>
+      </c>
       <c r="M370" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N370" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22882,12 +24338,16 @@
       <c r="K371" t="s">
         <v>569</v>
       </c>
+      <c r="L371" t="str">
+        <f t="shared" si="17"/>
+        <v>QXB11671</v>
+      </c>
       <c r="M371" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N371" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -22925,12 +24385,16 @@
       <c r="K372" t="s">
         <v>652</v>
       </c>
+      <c r="L372" t="str">
+        <f t="shared" si="17"/>
+        <v>UAK41329</v>
+      </c>
       <c r="M372" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N372" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -22968,12 +24432,16 @@
       <c r="K373" t="s">
         <v>652</v>
       </c>
+      <c r="L373" t="str">
+        <f t="shared" si="17"/>
+        <v>UAK41565</v>
+      </c>
       <c r="M373" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N373" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
     </row>
@@ -23011,12 +24479,16 @@
       <c r="K374" t="s">
         <v>305</v>
       </c>
+      <c r="L374" t="str">
+        <f t="shared" si="17"/>
+        <v>ABQ61537</v>
+      </c>
       <c r="M374" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N374" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O374" t="s">
@@ -23057,12 +24529,16 @@
       <c r="K375" t="s">
         <v>305</v>
       </c>
+      <c r="L375" t="str">
+        <f t="shared" si="17"/>
+        <v>ADE87062</v>
+      </c>
       <c r="M375" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N375" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O375" t="s">
@@ -23103,12 +24579,16 @@
       <c r="K376" t="s">
         <v>305</v>
       </c>
+      <c r="L376" t="str">
+        <f t="shared" si="17"/>
+        <v>ADY58375</v>
+      </c>
       <c r="M376" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N376" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O376" t="s">
@@ -23149,12 +24629,16 @@
       <c r="K377" t="s">
         <v>305</v>
       </c>
+      <c r="L377" t="str">
+        <f t="shared" si="17"/>
+        <v>AEM22237</v>
+      </c>
       <c r="M377" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N377" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O377" t="s">
@@ -23195,12 +24679,16 @@
       <c r="K378" t="s">
         <v>305</v>
       </c>
+      <c r="L378" t="str">
+        <f t="shared" si="17"/>
+        <v>AEO47024</v>
+      </c>
       <c r="M378" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N378" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O378" t="s">
@@ -23241,12 +24729,16 @@
       <c r="K379" t="s">
         <v>305</v>
       </c>
+      <c r="L379" t="str">
+        <f t="shared" si="17"/>
+        <v>AIK95531</v>
+      </c>
       <c r="M379" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N379" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O379" t="s">
@@ -23287,12 +24779,16 @@
       <c r="K380" t="s">
         <v>305</v>
       </c>
+      <c r="L380" t="str">
+        <f t="shared" si="17"/>
+        <v>APW44802</v>
+      </c>
       <c r="M380" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N380" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O380" t="s">
@@ -23333,12 +24829,16 @@
       <c r="K381" t="s">
         <v>305</v>
       </c>
+      <c r="L381" t="str">
+        <f t="shared" si="17"/>
+        <v>APW43192</v>
+      </c>
       <c r="M381" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N381" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O381" t="s">
@@ -23379,12 +24879,16 @@
       <c r="K382" t="s">
         <v>305</v>
       </c>
+      <c r="L382" t="str">
+        <f t="shared" si="17"/>
+        <v>CCG56828</v>
+      </c>
       <c r="M382" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N382" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O382" t="s">
@@ -23425,12 +24929,16 @@
       <c r="K383" t="s">
         <v>305</v>
       </c>
+      <c r="L383" t="str">
+        <f t="shared" si="17"/>
+        <v>QDU98462</v>
+      </c>
       <c r="M383" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N383" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O383" t="s">
@@ -23471,12 +24979,16 @@
       <c r="K384" t="s">
         <v>652</v>
       </c>
+      <c r="L384" t="str">
+        <f t="shared" si="17"/>
+        <v>QSR84239</v>
+      </c>
       <c r="M384" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N384" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O384" t="s">
@@ -23517,12 +25029,16 @@
       <c r="K385" t="s">
         <v>305</v>
       </c>
+      <c r="L385" t="str">
+        <f t="shared" si="17"/>
+        <v>QSR84464</v>
+      </c>
       <c r="M385" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N385" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>yes, fix please</v>
       </c>
       <c r="O385" t="s">
